--- a/乐而乐需求文档/乐而乐20190708需求.xlsx
+++ b/乐而乐需求文档/乐而乐20190708需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22500" windowHeight="11235"/>
+    <workbookView windowWidth="24090" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,10 +86,50 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -98,62 +138,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,7 +214,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,61 +222,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,30 +427,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,18 +449,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,7 +473,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,178 +508,180 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1018,27 +1008,27 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.3008849557522" customWidth="1"/>
-    <col min="2" max="2" width="88.212389380531" customWidth="1"/>
-    <col min="3" max="3" width="32.858407079646" customWidth="1"/>
+    <col min="1" max="1" width="17.3" customWidth="1"/>
+    <col min="2" max="2" width="88.2083333333333" customWidth="1"/>
+    <col min="3" max="3" width="32.8583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="51" customHeight="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1088,7 +1078,6 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2"/>
       <c r="D5" s="2">
         <v>2</v>
       </c>
@@ -1100,7 +1089,7 @@
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2">

--- a/乐而乐需求文档/乐而乐20190708需求.xlsx
+++ b/乐而乐需求文档/乐而乐20190708需求.xlsx
@@ -71,8 +71,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,13 +84,111 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
@@ -99,16 +197,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,106 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +427,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,225 +527,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1008,7 +1008,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1054,7 +1054,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="51" customHeight="1" spans="1:4">
@@ -1068,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="51" customHeight="1" spans="1:4">
@@ -1079,7 +1079,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="51" customHeight="1" spans="1:4">
@@ -1093,7 +1093,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
